--- a/data/_gestion/inSara.xlsx
+++ b/data/_gestion/inSara.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancolombia-my.sharepoint.com/personal/cridia_bancolombia_com_co/Documents/Cuadre Cajeros/Gestiones/sararodr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jorge HDI 2025\PROYECTOS\Bancolombia\RPA Revision Cuadre Contable de TDV\Proyecto_n8n\n8n-hdi-automate-app\data\_gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7004" documentId="8_{55535E4F-AEEC-4BDA-9750-ADD424F5BF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E740C45-3112-4628-AFDD-5F798184FC61}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="192">
   <si>
     <t>CÓDIGO FONDO</t>
   </si>
@@ -207,39 +206,15 @@
     <t>MANIZALES</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>CRUZAR</t>
-  </si>
-  <si>
-    <t>FISICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCULADORA ARROJA EL FALTANTE FISICO </t>
-  </si>
-  <si>
     <t>FLORENCIA</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>NEIVA</t>
   </si>
   <si>
     <t>ARMENIA</t>
   </si>
   <si>
-    <t>SE ESPERA FIN DE CICLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE ESPERA FIN DE CICLO </t>
-  </si>
-  <si>
-    <t>ADICION ERRADA</t>
-  </si>
-  <si>
     <t>POPAYAN</t>
   </si>
   <si>
@@ -249,12 +224,6 @@
     <t>APARTADO</t>
   </si>
   <si>
-    <t xml:space="preserve">CALCULADORA ARROJA EL SOBRANTE FISICO </t>
-  </si>
-  <si>
-    <t>ESTA EN LA 1159</t>
-  </si>
-  <si>
     <t>ATM PLAZA DE FLORES</t>
   </si>
   <si>
@@ -309,12 +278,6 @@
     <t>ATM HALL PALOMINO HOSTAL 1</t>
   </si>
   <si>
-    <t>ADICIÓN ERRADA</t>
-  </si>
-  <si>
-    <t>LA CUARTA GAVETA NO TIENE BILLETES</t>
-  </si>
-  <si>
     <t>ATM EXITO EXPRESS PONTEVEDRA</t>
   </si>
   <si>
@@ -432,15 +395,6 @@
     <t>ATM CALASANZ</t>
   </si>
   <si>
-    <t xml:space="preserve">TIENE MAL LA PROVISIÓN </t>
-  </si>
-  <si>
-    <t>CALCULADORA ARROJA EL FALTANTE FISICO</t>
-  </si>
-  <si>
-    <t>CALCULADORA ARROJA EL SOBRANTE FISICO</t>
-  </si>
-  <si>
     <t>ATM SUESCA 1</t>
   </si>
   <si>
@@ -658,78 +612,12 @@
   </si>
   <si>
     <t>ATM EXITO PUERTA DEL NORTE 1</t>
-  </si>
-  <si>
-    <t>CALCULADORA ARROJA EL FALTANTE FISICO. AL DIA 17 EL CAJERO CUADRA</t>
-  </si>
-  <si>
-    <t>CALCULADORA ARROJA EL FALTANTE FISICO CON ULTIMA TRX DEL DIA 16 DE FEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE CRUZA CON EL DIA 16 DE FEB </t>
-  </si>
-  <si>
-    <t>SE CRUZA CON EL DIA 16 DE FEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUNTEO </t>
-  </si>
-  <si>
-    <t>CASH COUNTS CLEARED (CASHDISPENSER)
-CASH DISPENSED
-TYPE 1 = 01372 TYPE 2 = 00246
-TYPE 3 = 00649 TYPE 4 = 00439
-CASH REMAINING
-TYPE 1 = 00928 TYPE 2 = 02054
-TYPE 3 = 01651 TYPE 4 = 01561</t>
-  </si>
-  <si>
-    <t>SE ESPERA FIN DE CICLO. NADA EN LA 1159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE SUBE A LECTURAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL CAJERO AL DIA 14 DE FEB CUADRA </t>
-  </si>
-  <si>
-    <t>SE ESPERA FIN DE CICLO, NADA EN LA 1159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTADORES EN 0 AL DIA 15 DE ENERO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRA PUNTEO CUADRA. SE ESPERA PRX FIN DE CICLO PARA PUNTEO </t>
-  </si>
-  <si>
-    <t>CASH COUNTS CLEARED (CASHDISPENSER)
-CASH DISPENSED
-TYPE 1 = 02299 TYPE 2 = 01211
-TYPE 3 = 01491 TYPE 4 = 01100
-CASH REMAINING
-TYPE 1 = 00001 TYPE 2 = 01089
-TYPE 3 = 00809 TYPE 4 = 00900</t>
-  </si>
-  <si>
-    <t>17/FEB CUADRA</t>
-  </si>
-  <si>
-    <t>SE PIDIO FIN DE CICLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERROR EN CONTADORES, CAJERO ENTULADO </t>
-  </si>
-  <si>
-    <t>SE CRUZA CON LOS SOBRANTES DEL 11 AL 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENDIENTE PUNTEO </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;?_-;_-@_-"/>
@@ -938,8 +826,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Moneda 10" xfId="1" xr:uid="{6A8D29CC-07FF-4EEE-9647-529636957D36}"/>
-    <cellStyle name="Moneda 21" xfId="2" xr:uid="{C0B2E3C5-5C38-40B8-87A8-91B605050730}"/>
+    <cellStyle name="Moneda 10" xfId="1"/>
+    <cellStyle name="Moneda 21" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -993,7 +881,7 @@
             <xdr14:cNvPr id="4" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F44C49B-FFB3-CA8D-3A81-58EB4307D53A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F44C49B-FFB3-CA8D-3A81-58EB4307D53A}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1053,7 +941,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52E18BB-DE77-4897-A66E-CC79C57D2064}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A52E18BB-DE77-4897-A66E-CC79C57D2064}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1113,7 +1001,7 @@
             <xdr14:cNvPr id="3" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A8601E-CDC3-4473-B217-D6A4B5463821}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2A8601E-CDC3-4473-B217-D6A4B5463821}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1173,7 +1061,7 @@
             <xdr14:cNvPr id="5" name="Entrada de lápiz 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A168F3-DB70-4684-AC40-B97DF180D7BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02A168F3-DB70-4684-AC40-B97DF180D7BE}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1617,42 +1505,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1048294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O99" sqref="O99"/>
+      <selection pane="bottomLeft" activeCell="O123" sqref="O123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.453125" customWidth="1"/>
-    <col min="2" max="2" width="1.26953125" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="1.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="1.21875" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.08984375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="3.26953125" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" customWidth="1"/>
-    <col min="19" max="19" width="19.6328125" customWidth="1"/>
-    <col min="20" max="20" width="12.81640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="11.7265625" customWidth="1"/>
-    <col min="22" max="22" width="9.26953125" customWidth="1"/>
-    <col min="23" max="23" width="8.453125" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="3.21875" customWidth="1"/>
+    <col min="18" max="18" width="9.21875" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12.77734375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="11.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1743,7 +1631,7 @@
         <v>1227</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E2" s="5">
         <v>20250217</v>
@@ -1773,25 +1661,13 @@
       <c r="N2" s="30">
         <v>100000</v>
       </c>
-      <c r="O2" s="12">
-        <v>45704</v>
-      </c>
-      <c r="P2" s="12">
-        <v>45704</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5" t="s">
         <v>38</v>
@@ -1802,7 +1678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>30</v>
       </c>
@@ -1813,7 +1689,7 @@
         <v>6222</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E3" s="5">
         <v>20250217</v>
@@ -1845,19 +1721,11 @@
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5" t="s">
         <v>38</v>
@@ -1868,7 +1736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1879,7 +1747,7 @@
         <v>5853</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E4" s="5">
         <v>20250217</v>
@@ -1911,19 +1779,11 @@
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5" t="s">
         <v>38</v>
@@ -1934,7 +1794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1945,7 +1805,7 @@
         <v>5791</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E5" s="5">
         <v>20250217</v>
@@ -1975,25 +1835,13 @@
       <c r="N5" s="30">
         <v>40000</v>
       </c>
-      <c r="O5" s="12">
-        <v>45704</v>
-      </c>
-      <c r="P5" s="12">
-        <v>45704</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5" t="s">
         <v>38</v>
@@ -2004,7 +1852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>85</v>
       </c>
@@ -2015,7 +1863,7 @@
         <v>5984</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E6" s="5">
         <v>20250217</v>
@@ -2047,19 +1895,11 @@
       <c r="N6" s="30"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="5" t="s">
-        <v>221</v>
-      </c>
+      <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5" t="s">
         <v>38</v>
@@ -2070,7 +1910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>80</v>
       </c>
@@ -2081,7 +1921,7 @@
         <v>9298</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E7" s="5">
         <v>20250217</v>
@@ -2113,19 +1953,11 @@
       </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5" t="s">
         <v>38</v>
@@ -2136,18 +1968,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>374</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" s="9">
         <v>7610</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5">
         <v>20250217</v>
@@ -2177,25 +2009,13 @@
         <v>350000</v>
       </c>
       <c r="N8" s="30"/>
-      <c r="O8" s="12">
-        <v>45702</v>
-      </c>
-      <c r="P8" s="12">
-        <v>45704</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5" t="s">
         <v>38</v>
@@ -2206,7 +2026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>60</v>
       </c>
@@ -2217,7 +2037,7 @@
         <v>7982</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E9" s="5">
         <v>20250217</v>
@@ -2247,21 +2067,11 @@
         <v>2000000</v>
       </c>
       <c r="N9" s="30"/>
-      <c r="O9" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P9" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
@@ -2274,7 +2084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>30</v>
       </c>
@@ -2285,7 +2095,7 @@
         <v>8042</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E10" s="5">
         <v>20250217</v>
@@ -2317,19 +2127,11 @@
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5" t="s">
         <v>38</v>
@@ -2340,7 +2142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -2351,7 +2153,7 @@
         <v>8219</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E11" s="5">
         <v>20250217</v>
@@ -2381,25 +2183,13 @@
       <c r="N11" s="30">
         <v>100000</v>
       </c>
-      <c r="O11" s="12">
-        <v>45704</v>
-      </c>
-      <c r="P11" s="12">
-        <v>45704</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5" t="s">
         <v>38</v>
@@ -2410,7 +2200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -2421,7 +2211,7 @@
         <v>8141</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E12" s="5">
         <v>20250217</v>
@@ -2451,25 +2241,13 @@
         <v>4550000</v>
       </c>
       <c r="N12" s="30"/>
-      <c r="O12" s="12">
-        <v>45703</v>
-      </c>
-      <c r="P12" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5" t="s">
         <v>38</v>
@@ -2480,7 +2258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>30</v>
       </c>
@@ -2491,7 +2269,7 @@
         <v>5425</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E13" s="5">
         <v>20250217</v>
@@ -2521,25 +2299,13 @@
       <c r="N13" s="30">
         <v>60000</v>
       </c>
-      <c r="O13" s="12">
-        <v>45704</v>
-      </c>
-      <c r="P13" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5" t="s">
         <v>38</v>
@@ -2550,7 +2316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -2561,7 +2327,7 @@
         <v>6113</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E14" s="5">
         <v>20250217</v>
@@ -2591,25 +2357,13 @@
         <v>170000</v>
       </c>
       <c r="N14" s="30"/>
-      <c r="O14" s="12">
-        <v>45701</v>
-      </c>
-      <c r="P14" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5" t="s">
         <v>38</v>
@@ -2620,18 +2374,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C15" s="9">
         <v>6073</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E15" s="5">
         <v>20250217</v>
@@ -2661,21 +2415,11 @@
         <v>300000</v>
       </c>
       <c r="N15" s="30"/>
-      <c r="O15" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P15" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -2688,7 +2432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>80</v>
       </c>
@@ -2699,7 +2443,7 @@
         <v>6077</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E16" s="5">
         <v>20250217</v>
@@ -2731,19 +2475,11 @@
       <c r="N16" s="30"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5" t="s">
         <v>38</v>
@@ -2754,7 +2490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>423</v>
       </c>
@@ -2765,7 +2501,7 @@
         <v>6306</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E17" s="5">
         <v>20250217</v>
@@ -2795,25 +2531,13 @@
       <c r="N17" s="30">
         <v>100000</v>
       </c>
-      <c r="O17" s="12">
-        <v>45702</v>
-      </c>
-      <c r="P17" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5" t="s">
         <v>38</v>
@@ -2824,7 +2548,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>30</v>
       </c>
@@ -2835,7 +2559,7 @@
         <v>6300</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E18" s="5">
         <v>20250217</v>
@@ -2865,28 +2589,14 @@
         <v>100000</v>
       </c>
       <c r="N18" s="30"/>
-      <c r="O18" s="12">
-        <v>45703</v>
-      </c>
-      <c r="P18" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="V18" s="41" t="s">
-        <v>219</v>
-      </c>
+      <c r="U18" s="5"/>
+      <c r="V18" s="41"/>
       <c r="W18" s="5" t="s">
         <v>38</v>
       </c>
@@ -2896,7 +2606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -2907,7 +2617,7 @@
         <v>5863</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E19" s="5">
         <v>20250217</v>
@@ -2937,25 +2647,13 @@
       <c r="N19" s="30">
         <v>60000</v>
       </c>
-      <c r="O19" s="12">
-        <v>45703</v>
-      </c>
-      <c r="P19" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5" t="s">
         <v>38</v>
@@ -2966,7 +2664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -2977,7 +2675,7 @@
         <v>6008</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E20" s="5">
         <v>20250217</v>
@@ -3007,25 +2705,13 @@
         <v>950000</v>
       </c>
       <c r="N20" s="30"/>
-      <c r="O20" s="12">
-        <v>45701</v>
-      </c>
-      <c r="P20" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5" t="s">
         <v>38</v>
@@ -3036,18 +2722,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>868</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C21" s="9">
         <v>5936</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E21" s="5">
         <v>20250217</v>
@@ -3077,25 +2763,13 @@
         <v>100000</v>
       </c>
       <c r="N21" s="30"/>
-      <c r="O21" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P21" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5" t="s">
         <v>38</v>
@@ -3106,18 +2780,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C22" s="9">
         <v>5930</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E22" s="5">
         <v>20250217</v>
@@ -3147,25 +2821,13 @@
         <v>5400000</v>
       </c>
       <c r="N22" s="30"/>
-      <c r="O22" s="12">
-        <v>45702</v>
-      </c>
-      <c r="P22" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S22" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="5"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5" t="s">
         <v>38</v>
@@ -3176,18 +2838,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>258</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C23" s="9">
         <v>8975</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E23" s="5">
         <v>20250217</v>
@@ -3217,25 +2879,13 @@
         <v>60000</v>
       </c>
       <c r="N23" s="30"/>
-      <c r="O23" s="12">
-        <v>45701</v>
-      </c>
-      <c r="P23" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="5"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5" t="s">
         <v>38</v>
@@ -3246,18 +2896,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>645</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C24" s="9">
         <v>9889</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E24" s="5">
         <v>20250217</v>
@@ -3287,25 +2937,13 @@
         <v>650000</v>
       </c>
       <c r="N24" s="30"/>
-      <c r="O24" s="12">
-        <v>45698</v>
-      </c>
-      <c r="P24" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5" t="s">
         <v>38</v>
@@ -3316,7 +2954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>91</v>
       </c>
@@ -3327,7 +2965,7 @@
         <v>9348</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E25" s="5">
         <v>20250217</v>
@@ -3357,25 +2995,13 @@
         <v>400000</v>
       </c>
       <c r="N25" s="30"/>
-      <c r="O25" s="12">
-        <v>45701</v>
-      </c>
-      <c r="P25" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="5"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5" t="s">
         <v>38</v>
@@ -3386,18 +3012,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>905</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C26" s="9">
         <v>9661</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E26" s="5">
         <v>20250217</v>
@@ -3427,25 +3053,13 @@
         <v>520000</v>
       </c>
       <c r="N26" s="30"/>
-      <c r="O26" s="12">
-        <v>45703</v>
-      </c>
-      <c r="P26" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5" t="s">
         <v>38</v>
@@ -3456,7 +3070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>80</v>
       </c>
@@ -3467,7 +3081,7 @@
         <v>7915</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E27" s="5">
         <v>20250217</v>
@@ -3497,21 +3111,11 @@
         <v>2650000</v>
       </c>
       <c r="N27" s="30"/>
-      <c r="O27" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P27" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
@@ -3524,7 +3128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>30</v>
       </c>
@@ -3535,7 +3139,7 @@
         <v>7911</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E28" s="5">
         <v>20250217</v>
@@ -3565,21 +3169,11 @@
         <v>24950000</v>
       </c>
       <c r="N28" s="30"/>
-      <c r="O28" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P28" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
@@ -3592,7 +3186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>30</v>
       </c>
@@ -3603,7 +3197,7 @@
         <v>7485</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E29" s="5">
         <v>20250217</v>
@@ -3633,25 +3227,13 @@
         <v>80000</v>
       </c>
       <c r="N29" s="30"/>
-      <c r="O29" s="12">
-        <v>45703</v>
-      </c>
-      <c r="P29" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="5"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5" t="s">
         <v>38</v>
@@ -3662,18 +3244,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>905</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C30" s="9">
         <v>7469</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E30" s="5">
         <v>20250217</v>
@@ -3703,21 +3285,11 @@
         <v>2700000</v>
       </c>
       <c r="N30" s="30"/>
-      <c r="O30" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P30" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -3730,18 +3302,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>363</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C31" s="9">
         <v>7660</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E31" s="5">
         <v>20250217</v>
@@ -3771,25 +3343,13 @@
         <v>50000</v>
       </c>
       <c r="N31" s="30"/>
-      <c r="O31" s="12">
-        <v>45704</v>
-      </c>
-      <c r="P31" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5" t="s">
         <v>38</v>
@@ -3800,7 +3360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>80</v>
       </c>
@@ -3811,7 +3371,7 @@
         <v>8375</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E32" s="5">
         <v>20250217</v>
@@ -3841,25 +3401,13 @@
         <v>470000</v>
       </c>
       <c r="N32" s="30"/>
-      <c r="O32" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P32" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q32" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5" t="s">
         <v>38</v>
@@ -3870,7 +3418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>70</v>
       </c>
@@ -3881,7 +3429,7 @@
         <v>8025</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E33" s="5">
         <v>20250217</v>
@@ -3911,25 +3459,13 @@
       <c r="N33" s="30">
         <v>20000</v>
       </c>
-      <c r="O33" s="12">
-        <v>45703</v>
-      </c>
-      <c r="P33" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q33" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="5"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5" t="s">
         <v>38</v>
@@ -3940,18 +3476,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>868</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C34" s="9">
         <v>8136</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E34" s="5">
         <v>20250217</v>
@@ -3981,25 +3517,13 @@
         <v>40000</v>
       </c>
       <c r="N34" s="30"/>
-      <c r="O34" s="12">
-        <v>45704</v>
-      </c>
-      <c r="P34" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q34" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5" t="s">
         <v>38</v>
@@ -4010,7 +3534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>85</v>
       </c>
@@ -4021,7 +3545,7 @@
         <v>9670</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E35">
         <v>20250217</v>
@@ -4051,25 +3575,13 @@
       <c r="N35" s="31">
         <v>100000</v>
       </c>
-      <c r="O35" s="12">
-        <v>45704</v>
-      </c>
-      <c r="P35" s="12">
-        <v>45704</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R35" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="U35" s="5"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5" t="s">
         <v>38</v>
@@ -4078,7 +3590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4089,7 +3601,7 @@
         <v>7713</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E36">
         <v>20250217</v>
@@ -4119,21 +3631,11 @@
         <v>100000</v>
       </c>
       <c r="N36" s="31"/>
-      <c r="O36" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P36" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q36" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="W36" s="5" t="s">
@@ -4143,18 +3645,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C37" s="9">
         <v>6375</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E37">
         <v>20250217</v>
@@ -4184,25 +3686,10 @@
       <c r="N37" s="31">
         <v>200000</v>
       </c>
-      <c r="O37" s="4">
-        <v>45702</v>
-      </c>
-      <c r="P37" s="4">
-        <v>45704</v>
-      </c>
-      <c r="Q37" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R37" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="5"/>
       <c r="T37"/>
-      <c r="U37" t="s">
-        <v>132</v>
-      </c>
       <c r="W37" s="5" t="s">
         <v>38</v>
       </c>
@@ -4210,7 +3697,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>80</v>
       </c>
@@ -4221,7 +3708,7 @@
         <v>6365</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E38">
         <v>20250217</v>
@@ -4251,19 +3738,10 @@
         <v>3000000</v>
       </c>
       <c r="N38" s="31"/>
-      <c r="Q38" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R38" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="5"/>
       <c r="T38"/>
-      <c r="U38" t="s">
-        <v>90</v>
-      </c>
       <c r="W38" s="5" t="s">
         <v>38</v>
       </c>
@@ -4271,7 +3749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>30</v>
       </c>
@@ -4282,7 +3760,7 @@
         <v>6354</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E39">
         <v>20250217</v>
@@ -4312,19 +3790,10 @@
         <v>6000000</v>
       </c>
       <c r="N39" s="31"/>
-      <c r="Q39" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R39" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="5"/>
       <c r="T39"/>
-      <c r="U39" t="s">
-        <v>90</v>
-      </c>
       <c r="W39" s="5" t="s">
         <v>38</v>
       </c>
@@ -4332,7 +3801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>91</v>
       </c>
@@ -4343,7 +3812,7 @@
         <v>6567</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E40">
         <v>20250217</v>
@@ -4373,21 +3842,11 @@
         <v>50000</v>
       </c>
       <c r="N40" s="31"/>
-      <c r="O40" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P40" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q40" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="W40" s="5" t="s">
         <v>38</v>
@@ -4396,18 +3855,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>645</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C41" s="9">
         <v>7220</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E41">
         <v>20250217</v>
@@ -4437,25 +3896,8 @@
       <c r="N41" s="31">
         <v>100000</v>
       </c>
-      <c r="O41" s="4">
-        <v>45704</v>
-      </c>
-      <c r="P41" s="4">
-        <v>45704</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>56</v>
-      </c>
-      <c r="R41" t="s">
-        <v>57</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="S41" s="5"/>
       <c r="T41"/>
-      <c r="U41" t="s">
-        <v>209</v>
-      </c>
       <c r="W41" s="5" t="s">
         <v>38</v>
       </c>
@@ -4463,7 +3905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>30</v>
       </c>
@@ -4474,7 +3916,7 @@
         <v>6945</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E42">
         <v>20250217</v>
@@ -4504,19 +3946,10 @@
         <v>6000000</v>
       </c>
       <c r="N42" s="31"/>
-      <c r="Q42" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R42" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S42" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="5"/>
       <c r="T42"/>
-      <c r="U42" t="s">
-        <v>90</v>
-      </c>
       <c r="W42" s="5" t="s">
         <v>38</v>
       </c>
@@ -4524,7 +3957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -4535,7 +3968,7 @@
         <v>6943</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E43">
         <v>20250217</v>
@@ -4565,19 +3998,8 @@
         <v>3000000</v>
       </c>
       <c r="N43" s="31"/>
-      <c r="Q43" t="s">
-        <v>61</v>
-      </c>
-      <c r="R43" t="s">
-        <v>40</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="S43" s="5"/>
       <c r="T43"/>
-      <c r="U43" t="s">
-        <v>131</v>
-      </c>
       <c r="W43" s="5" t="s">
         <v>38</v>
       </c>
@@ -4585,7 +4007,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>30</v>
       </c>
@@ -4596,7 +4018,7 @@
         <v>6993</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E44">
         <v>20250217</v>
@@ -4626,19 +4048,10 @@
       <c r="N44" s="31">
         <v>6000000</v>
       </c>
-      <c r="Q44" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R44" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="5"/>
       <c r="T44"/>
-      <c r="U44" t="s">
-        <v>90</v>
-      </c>
       <c r="W44" s="5" t="s">
         <v>38</v>
       </c>
@@ -4646,18 +4059,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>466</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C45" s="9">
         <v>7088</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E45">
         <v>20250217</v>
@@ -4687,25 +4100,10 @@
       <c r="N45" s="31">
         <v>50000</v>
       </c>
-      <c r="O45" s="4">
-        <v>45702</v>
-      </c>
-      <c r="P45" s="4">
-        <v>45702</v>
-      </c>
-      <c r="Q45" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R45" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="5"/>
       <c r="T45"/>
-      <c r="U45" t="s">
-        <v>214</v>
-      </c>
       <c r="W45" s="5" t="s">
         <v>38</v>
       </c>
@@ -4713,7 +4111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>30</v>
       </c>
@@ -4724,7 +4122,7 @@
         <v>7026</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E46">
         <v>20250217</v>
@@ -4754,19 +4152,11 @@
       <c r="N46" s="31">
         <v>50000</v>
       </c>
-      <c r="Q46" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R46" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="5"/>
       <c r="T46"/>
-      <c r="U46" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="U46" s="5"/>
       <c r="W46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4774,18 +4164,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>645</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C47" s="9">
         <v>7049</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E47">
         <v>20250217</v>
@@ -4815,25 +4205,8 @@
       <c r="N47" s="31">
         <v>300000</v>
       </c>
-      <c r="O47" s="4">
-        <v>45704</v>
-      </c>
-      <c r="P47" s="4">
-        <v>45704</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>56</v>
-      </c>
-      <c r="R47" t="s">
-        <v>57</v>
-      </c>
-      <c r="S47" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="S47" s="5"/>
       <c r="T47"/>
-      <c r="U47" t="s">
-        <v>209</v>
-      </c>
       <c r="W47" s="5" t="s">
         <v>38</v>
       </c>
@@ -4841,7 +4214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>85</v>
       </c>
@@ -4852,7 +4225,7 @@
         <v>5679</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E48">
         <v>20250217</v>
@@ -4882,19 +4255,11 @@
       <c r="N48" s="31">
         <v>800000</v>
       </c>
-      <c r="Q48" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R48" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="5"/>
       <c r="T48"/>
-      <c r="U48" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="U48" s="5"/>
       <c r="W48" s="5" t="s">
         <v>38</v>
       </c>
@@ -4902,18 +4267,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>645</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C49" s="9">
         <v>5382</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E49">
         <v>20250217</v>
@@ -4943,25 +4308,10 @@
       <c r="N49" s="31">
         <v>760000</v>
       </c>
-      <c r="O49" s="4">
-        <v>45704</v>
-      </c>
-      <c r="P49" s="4">
-        <v>45704</v>
-      </c>
-      <c r="Q49" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R49" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="5"/>
       <c r="T49"/>
-      <c r="U49" t="s">
-        <v>209</v>
-      </c>
       <c r="W49" s="5" t="s">
         <v>38</v>
       </c>
@@ -4969,7 +4319,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>60</v>
       </c>
@@ -4980,7 +4330,7 @@
         <v>5301</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <v>20250217</v>
@@ -5010,19 +4360,11 @@
       <c r="N50" s="31">
         <v>710000</v>
       </c>
-      <c r="Q50" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R50" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="5"/>
       <c r="T50"/>
-      <c r="U50" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="U50" s="5"/>
       <c r="W50" s="5" t="s">
         <v>38</v>
       </c>
@@ -5030,7 +4372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5041,7 +4383,7 @@
         <v>5468</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E51">
         <v>20250217</v>
@@ -5071,21 +4413,11 @@
         <v>100000</v>
       </c>
       <c r="N51" s="31"/>
-      <c r="O51" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P51" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q51" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R51" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S51" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="W51" s="5" t="s">
         <v>38</v>
@@ -5094,7 +4426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>73</v>
       </c>
@@ -5105,7 +4437,7 @@
         <v>5493</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E52">
         <v>20250217</v>
@@ -5135,19 +4467,11 @@
       <c r="N52" s="31">
         <v>100000</v>
       </c>
-      <c r="Q52" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R52" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S52" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="5"/>
       <c r="T52"/>
-      <c r="U52" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="U52" s="5"/>
       <c r="W52" s="5" t="s">
         <v>38</v>
       </c>
@@ -5155,18 +4479,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>868</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C53" s="9">
         <v>5482</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E53">
         <v>20250217</v>
@@ -5196,25 +4520,10 @@
       <c r="N53" s="31">
         <v>2460000</v>
       </c>
-      <c r="O53" s="4">
-        <v>45704</v>
-      </c>
-      <c r="P53" s="4">
-        <v>45704</v>
-      </c>
-      <c r="Q53" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R53" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="S53" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="5"/>
       <c r="T53"/>
-      <c r="U53" t="s">
-        <v>209</v>
-      </c>
       <c r="W53" s="5" t="s">
         <v>38</v>
       </c>
@@ -5222,7 +4531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>30</v>
       </c>
@@ -5233,7 +4542,7 @@
         <v>8615</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E54">
         <v>20250217</v>
@@ -5263,19 +4572,11 @@
       <c r="N54" s="31">
         <v>6000000</v>
       </c>
-      <c r="Q54" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R54" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S54" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="5"/>
       <c r="T54"/>
-      <c r="U54" s="35" t="s">
-        <v>90</v>
-      </c>
+      <c r="U54" s="35"/>
       <c r="W54" s="5" t="s">
         <v>38</v>
       </c>
@@ -5283,7 +4584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -5294,7 +4595,7 @@
         <v>8265</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E55">
         <v>20250217</v>
@@ -5324,21 +4625,11 @@
         <v>5980000</v>
       </c>
       <c r="N55" s="31"/>
-      <c r="O55" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P55" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q55" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R55" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S55" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="W55" s="5" t="s">
         <v>38</v>
@@ -5347,7 +4638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -5358,7 +4649,7 @@
         <v>6594</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E56">
         <v>20250217</v>
@@ -5388,25 +4679,12 @@
         <v>20000</v>
       </c>
       <c r="N56" s="31"/>
-      <c r="O56" s="4">
-        <v>45702</v>
-      </c>
-      <c r="P56" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q56" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R56" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S56" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U56" s="5"/>
       <c r="W56" s="5" t="s">
         <v>38</v>
       </c>
@@ -5414,18 +4692,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>905</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C57" s="9">
         <v>6832</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E57">
         <v>20250217</v>
@@ -5455,25 +4733,12 @@
         <v>90000</v>
       </c>
       <c r="N57" s="31"/>
-      <c r="O57" s="4">
-        <v>45703</v>
-      </c>
-      <c r="P57" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q57" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R57" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S57" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="5"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U57" s="5"/>
       <c r="W57" s="5" t="s">
         <v>38</v>
       </c>
@@ -5481,7 +4746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -5492,7 +4757,7 @@
         <v>6396</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E58">
         <v>20250217</v>
@@ -5522,19 +4787,10 @@
         <v>74770000</v>
       </c>
       <c r="N58" s="31"/>
-      <c r="Q58" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R58" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S58" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="5"/>
       <c r="T58"/>
-      <c r="U58" t="s">
-        <v>64</v>
-      </c>
       <c r="W58" s="5" t="s">
         <v>38</v>
       </c>
@@ -5542,7 +4798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>85</v>
       </c>
@@ -5553,7 +4809,7 @@
         <v>6341</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E59">
         <v>20250217</v>
@@ -5583,21 +4839,11 @@
         <v>200000</v>
       </c>
       <c r="N59" s="31"/>
-      <c r="O59" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P59" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q59" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R59" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S59" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="W59" s="5" t="s">
         <v>38</v>
@@ -5606,18 +4852,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C60" s="9">
         <v>6324</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E60">
         <v>20250217</v>
@@ -5647,25 +4893,8 @@
       <c r="N60" s="31">
         <v>20000</v>
       </c>
-      <c r="O60" s="4">
-        <v>45703</v>
-      </c>
-      <c r="P60" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>56</v>
-      </c>
-      <c r="R60" t="s">
-        <v>58</v>
-      </c>
-      <c r="S60" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="S60" s="5"/>
       <c r="T60"/>
-      <c r="U60" t="s">
-        <v>59</v>
-      </c>
       <c r="W60" s="5" t="s">
         <v>38</v>
       </c>
@@ -5673,7 +4902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>85</v>
       </c>
@@ -5684,7 +4913,7 @@
         <v>6577</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E61">
         <v>20250217</v>
@@ -5714,25 +4943,8 @@
       <c r="N61" s="31">
         <v>100000</v>
       </c>
-      <c r="O61" s="4">
-        <v>45701</v>
-      </c>
-      <c r="P61" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>56</v>
-      </c>
-      <c r="R61" t="s">
-        <v>58</v>
-      </c>
-      <c r="S61" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="S61" s="5"/>
       <c r="T61"/>
-      <c r="U61" t="s">
-        <v>59</v>
-      </c>
       <c r="W61" s="5" t="s">
         <v>38</v>
       </c>
@@ -5740,7 +4952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>30</v>
       </c>
@@ -5751,7 +4963,7 @@
         <v>6505</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E62">
         <v>20250217</v>
@@ -5781,25 +4993,8 @@
       <c r="N62" s="31">
         <v>40000</v>
       </c>
-      <c r="O62" s="4">
-        <v>45700</v>
-      </c>
-      <c r="P62" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>56</v>
-      </c>
-      <c r="R62" t="s">
-        <v>58</v>
-      </c>
-      <c r="S62" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="S62" s="5"/>
       <c r="T62"/>
-      <c r="U62" t="s">
-        <v>59</v>
-      </c>
       <c r="W62" s="5" t="s">
         <v>38</v>
       </c>
@@ -5807,18 +5002,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>423</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C63" s="9">
         <v>7225</v>
       </c>
       <c r="D63" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E63">
         <v>20250217</v>
@@ -5848,25 +5043,12 @@
         <v>40000</v>
       </c>
       <c r="N63" s="31"/>
-      <c r="O63" s="4">
-        <v>45702</v>
-      </c>
-      <c r="P63" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q63" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R63" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S63" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="5"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U63" s="5"/>
       <c r="W63" s="5" t="s">
         <v>38</v>
       </c>
@@ -5874,7 +5056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>30</v>
       </c>
@@ -5885,7 +5067,7 @@
         <v>7395</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E64">
         <v>20250217</v>
@@ -5915,19 +5097,10 @@
       <c r="N64" s="31">
         <v>2100000</v>
       </c>
-      <c r="Q64" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R64" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S64" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="5"/>
       <c r="T64"/>
-      <c r="U64" t="s">
-        <v>64</v>
-      </c>
       <c r="W64" s="5" t="s">
         <v>38</v>
       </c>
@@ -5935,7 +5108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>30</v>
       </c>
@@ -5946,7 +5119,7 @@
         <v>6947</v>
       </c>
       <c r="D65" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E65">
         <v>20250217</v>
@@ -5976,21 +5149,11 @@
         <v>100000</v>
       </c>
       <c r="N65" s="31"/>
-      <c r="O65" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P65" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q65" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R65" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S65" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="W65" s="5" t="s">
         <v>38</v>
@@ -5999,7 +5162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>91</v>
       </c>
@@ -6010,7 +5173,7 @@
         <v>6932</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E66">
         <v>20250217</v>
@@ -6040,25 +5203,12 @@
         <v>40000</v>
       </c>
       <c r="N66" s="31"/>
-      <c r="O66" s="4">
-        <v>45701</v>
-      </c>
-      <c r="P66" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q66" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R66" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S66" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="5"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U66" s="5"/>
       <c r="W66" s="5" t="s">
         <v>38</v>
       </c>
@@ -6066,7 +5216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>80</v>
       </c>
@@ -6077,7 +5227,7 @@
         <v>6957</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E67">
         <v>20250217</v>
@@ -6107,21 +5257,11 @@
         <v>100000</v>
       </c>
       <c r="N67" s="31"/>
-      <c r="O67" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P67" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q67" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R67" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S67" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="W67" s="5" t="s">
         <v>38</v>
@@ -6130,7 +5270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>30</v>
       </c>
@@ -6141,7 +5281,7 @@
         <v>5244</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E68">
         <v>20250217</v>
@@ -6171,19 +5311,10 @@
       <c r="N68" s="31">
         <v>160000</v>
       </c>
-      <c r="Q68" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R68" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S68" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="5"/>
       <c r="T68"/>
-      <c r="U68" t="s">
-        <v>215</v>
-      </c>
       <c r="W68" s="5" t="s">
         <v>38</v>
       </c>
@@ -6191,7 +5322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>85</v>
       </c>
@@ -6202,7 +5333,7 @@
         <v>4999</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E69">
         <v>20250217</v>
@@ -6232,19 +5363,10 @@
         <v>100360000</v>
       </c>
       <c r="N69" s="31"/>
-      <c r="Q69" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R69" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S69" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="5"/>
       <c r="T69"/>
-      <c r="U69" t="s">
-        <v>64</v>
-      </c>
       <c r="W69" s="5" t="s">
         <v>38</v>
       </c>
@@ -6252,7 +5374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>73</v>
       </c>
@@ -6263,7 +5385,7 @@
         <v>4985</v>
       </c>
       <c r="D70" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E70">
         <v>20250217</v>
@@ -6293,25 +5415,10 @@
       <c r="N70" s="31">
         <v>40000</v>
       </c>
-      <c r="O70" s="4">
-        <v>45704</v>
-      </c>
-      <c r="P70" s="4">
-        <v>45704</v>
-      </c>
-      <c r="Q70" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R70" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="S70" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="5"/>
       <c r="T70"/>
-      <c r="U70" t="s">
-        <v>209</v>
-      </c>
       <c r="W70" s="5" t="s">
         <v>38</v>
       </c>
@@ -6319,7 +5426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>260</v>
       </c>
@@ -6330,7 +5437,7 @@
         <v>4984</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E71">
         <v>20250217</v>
@@ -6360,19 +5467,10 @@
         <v>115090000</v>
       </c>
       <c r="N71" s="31"/>
-      <c r="Q71" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R71" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S71" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="5"/>
       <c r="T71"/>
-      <c r="U71" t="s">
-        <v>64</v>
-      </c>
       <c r="W71" s="5" t="s">
         <v>38</v>
       </c>
@@ -6380,7 +5478,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>30</v>
       </c>
@@ -6391,7 +5489,7 @@
         <v>5242</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E72">
         <v>20250217</v>
@@ -6421,21 +5519,11 @@
         <v>30000</v>
       </c>
       <c r="N72" s="31"/>
-      <c r="O72" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P72" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q72" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R72" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S72" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="W72" s="5" t="s">
         <v>38</v>
@@ -6444,7 +5532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="27">
         <v>85</v>
       </c>
@@ -6455,7 +5543,7 @@
         <v>4704</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E73" s="27">
         <v>20250217</v>
@@ -6485,24 +5573,9 @@
       <c r="N73" s="25">
         <v>2340000</v>
       </c>
-      <c r="O73" s="42">
-        <v>45696</v>
-      </c>
-      <c r="P73" s="42">
-        <v>45700</v>
-      </c>
-      <c r="Q73" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="R73" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="S73" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="U73" s="27" t="s">
-        <v>211</v>
-      </c>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="S73" s="43"/>
       <c r="W73" s="43" t="s">
         <v>38</v>
       </c>
@@ -6510,7 +5583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>85</v>
       </c>
@@ -6521,7 +5594,7 @@
         <v>4938</v>
       </c>
       <c r="D74" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E74">
         <v>20250217</v>
@@ -6551,21 +5624,11 @@
         <v>100000</v>
       </c>
       <c r="N74" s="31"/>
-      <c r="O74" s="12">
-        <v>45705</v>
-      </c>
-      <c r="P74" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q74" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R74" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S74" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="W74" s="5" t="s">
         <v>38</v>
@@ -6574,7 +5637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>30</v>
       </c>
@@ -6585,7 +5648,7 @@
         <v>4918</v>
       </c>
       <c r="D75" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E75">
         <v>20250217</v>
@@ -6615,25 +5678,8 @@
       <c r="N75" s="31">
         <v>7380000</v>
       </c>
-      <c r="O75" s="4">
-        <v>45698</v>
-      </c>
-      <c r="P75" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>56</v>
-      </c>
-      <c r="R75" t="s">
-        <v>57</v>
-      </c>
-      <c r="S75" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="S75" s="5"/>
       <c r="T75"/>
-      <c r="U75" t="s">
-        <v>223</v>
-      </c>
       <c r="W75" s="5" t="s">
         <v>38</v>
       </c>
@@ -6641,7 +5687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>85</v>
       </c>
@@ -6652,7 +5698,7 @@
         <v>4974</v>
       </c>
       <c r="D76" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E76">
         <v>20250217</v>
@@ -6682,25 +5728,10 @@
       <c r="N76" s="31">
         <v>100000</v>
       </c>
-      <c r="O76" s="4">
-        <v>45704</v>
-      </c>
-      <c r="P76" s="4">
-        <v>45704</v>
-      </c>
-      <c r="Q76" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R76" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="S76" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="5"/>
       <c r="T76"/>
-      <c r="U76" t="s">
-        <v>209</v>
-      </c>
       <c r="W76" s="5" t="s">
         <v>38</v>
       </c>
@@ -6708,7 +5739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="27">
         <v>73</v>
       </c>
@@ -6719,7 +5750,7 @@
         <v>3489</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E77" s="27">
         <v>20250217</v>
@@ -6751,18 +5782,9 @@
       </c>
       <c r="O77" s="42"/>
       <c r="P77" s="42"/>
-      <c r="Q77" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R77" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S77" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="U77" s="27" t="s">
-        <v>224</v>
-      </c>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="43"/>
       <c r="W77" s="43" t="s">
         <v>38</v>
       </c>
@@ -6770,18 +5792,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C78" s="9">
         <v>3277</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E78">
         <v>20250217</v>
@@ -6811,25 +5833,12 @@
         <v>90000</v>
       </c>
       <c r="N78" s="31"/>
-      <c r="O78" s="4">
-        <v>45703</v>
-      </c>
-      <c r="P78" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q78" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R78" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S78" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="5"/>
       <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U78" s="5"/>
       <c r="W78" s="5" t="s">
         <v>38</v>
       </c>
@@ -6837,7 +5846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>30</v>
       </c>
@@ -6848,7 +5857,7 @@
         <v>3991</v>
       </c>
       <c r="D79" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E79">
         <v>20250217</v>
@@ -6878,25 +5887,8 @@
       <c r="N79" s="31">
         <v>40000</v>
       </c>
-      <c r="O79" s="4">
-        <v>45701</v>
-      </c>
-      <c r="P79" s="4">
-        <v>45703</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>56</v>
-      </c>
-      <c r="R79" t="s">
-        <v>58</v>
-      </c>
-      <c r="S79" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="S79" s="5"/>
       <c r="T79"/>
-      <c r="U79" t="s">
-        <v>207</v>
-      </c>
       <c r="W79" s="5" t="s">
         <v>38</v>
       </c>
@@ -6904,7 +5896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>30</v>
       </c>
@@ -6915,7 +5907,7 @@
         <v>308</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E80">
         <v>20250217</v>
@@ -6945,19 +5937,10 @@
         <v>348900000</v>
       </c>
       <c r="N80" s="31"/>
-      <c r="Q80" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R80" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S80" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="5"/>
       <c r="T80"/>
-      <c r="U80" t="s">
-        <v>222</v>
-      </c>
       <c r="W80" s="5" t="s">
         <v>38</v>
       </c>
@@ -6965,7 +5948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>85</v>
       </c>
@@ -6976,7 +5959,7 @@
         <v>4609</v>
       </c>
       <c r="D81" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E81">
         <v>20250217</v>
@@ -7006,25 +5989,10 @@
         <v>2370000</v>
       </c>
       <c r="N81" s="31"/>
-      <c r="O81" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P81" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q81" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R81" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S81" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="5"/>
       <c r="T81"/>
-      <c r="U81" t="s">
-        <v>220</v>
-      </c>
       <c r="W81" s="5" t="s">
         <v>38</v>
       </c>
@@ -7032,7 +6000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>30</v>
       </c>
@@ -7043,7 +6011,7 @@
         <v>4336</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E82">
         <v>20250217</v>
@@ -7073,21 +6041,9 @@
         <v>2080000</v>
       </c>
       <c r="N82" s="31"/>
-      <c r="O82" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P82" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q82" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R82" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S82" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="5"/>
       <c r="T82"/>
       <c r="W82" s="5" t="s">
         <v>38</v>
@@ -7096,7 +6052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -7107,7 +6063,7 @@
         <v>3651</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E83">
         <v>20250217</v>
@@ -7137,21 +6093,9 @@
         <v>20000</v>
       </c>
       <c r="N83" s="31"/>
-      <c r="O83" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P83" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q83" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R83" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S83" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="5"/>
       <c r="T83"/>
       <c r="W83" s="5" t="s">
         <v>38</v>
@@ -7160,18 +6104,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>524</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C84" s="9">
         <v>4392</v>
       </c>
       <c r="D84" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E84">
         <v>20250217</v>
@@ -7201,19 +6145,10 @@
         <v>79120000</v>
       </c>
       <c r="N84" s="31"/>
-      <c r="Q84" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R84" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S84" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="5"/>
       <c r="T84"/>
-      <c r="U84" t="s">
-        <v>65</v>
-      </c>
       <c r="W84" s="5" t="s">
         <v>38</v>
       </c>
@@ -7221,7 +6156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>30</v>
       </c>
@@ -7232,7 +6167,7 @@
         <v>4319</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E85">
         <v>20250217</v>
@@ -7262,19 +6197,11 @@
         <v>3000000</v>
       </c>
       <c r="N85" s="31"/>
-      <c r="Q85" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R85" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S85" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="5"/>
       <c r="T85"/>
-      <c r="U85" s="40" t="s">
-        <v>131</v>
-      </c>
+      <c r="U85" s="40"/>
       <c r="W85" s="5" t="s">
         <v>38</v>
       </c>
@@ -7282,18 +6209,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>905</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C86" s="9">
         <v>4806</v>
       </c>
       <c r="D86" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E86">
         <v>20250217</v>
@@ -7323,25 +6250,12 @@
         <v>500000</v>
       </c>
       <c r="N86" s="31"/>
-      <c r="O86" s="4">
-        <v>45703</v>
-      </c>
-      <c r="P86" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q86" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R86" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S86" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="5"/>
       <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U86" s="5"/>
       <c r="W86" s="5" t="s">
         <v>38</v>
       </c>
@@ -7349,7 +6263,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7360,7 +6274,7 @@
         <v>4923</v>
       </c>
       <c r="D87" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E87">
         <v>20250217</v>
@@ -7390,21 +6304,9 @@
         <v>100000</v>
       </c>
       <c r="N87" s="31"/>
-      <c r="O87" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P87" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q87" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R87" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S87" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="5"/>
       <c r="T87"/>
       <c r="W87" s="5" t="s">
         <v>38</v>
@@ -7413,18 +6315,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>524</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C88" s="9">
         <v>4917</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E88">
         <v>20250217</v>
@@ -7454,19 +6356,10 @@
       <c r="N88" s="31">
         <v>500000</v>
       </c>
-      <c r="Q88" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R88" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S88" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="5"/>
       <c r="T88"/>
-      <c r="U88" t="s">
-        <v>216</v>
-      </c>
       <c r="W88" s="5" t="s">
         <v>38</v>
       </c>
@@ -7474,18 +6367,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C89" s="9">
         <v>4947</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E89">
         <v>20250217</v>
@@ -7515,28 +6408,11 @@
       <c r="N89" s="31">
         <v>50000</v>
       </c>
-      <c r="O89" s="4">
-        <v>45704</v>
-      </c>
-      <c r="P89" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q89" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R89" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="S89" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="5"/>
       <c r="T89"/>
-      <c r="U89" t="s">
-        <v>132</v>
-      </c>
-      <c r="V89" s="39" t="s">
-        <v>212</v>
-      </c>
+      <c r="V89" s="39"/>
       <c r="W89" s="5" t="s">
         <v>38</v>
       </c>
@@ -7544,7 +6420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>423</v>
       </c>
@@ -7555,7 +6431,7 @@
         <v>4858</v>
       </c>
       <c r="D90" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E90">
         <v>20250217</v>
@@ -7585,21 +6461,9 @@
         <v>900000</v>
       </c>
       <c r="N90" s="31"/>
-      <c r="O90" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P90" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q90" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R90" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S90" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="34"/>
+      <c r="S90" s="5"/>
       <c r="T90"/>
       <c r="W90" s="5" t="s">
         <v>38</v>
@@ -7608,7 +6472,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>30</v>
       </c>
@@ -7619,7 +6483,7 @@
         <v>3376</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E91">
         <v>20250217</v>
@@ -7649,25 +6513,11 @@
         <v>100000</v>
       </c>
       <c r="N91" s="31"/>
-      <c r="O91" s="4">
-        <v>45703</v>
-      </c>
-      <c r="P91" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q91" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R91" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S91" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="5"/>
       <c r="T91" s="5"/>
-      <c r="U91" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="U91" s="5"/>
       <c r="W91" s="5" t="s">
         <v>38</v>
       </c>
@@ -7675,18 +6525,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>868</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C92" s="9">
         <v>3429</v>
       </c>
       <c r="D92" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E92">
         <v>20250217</v>
@@ -7716,25 +6566,11 @@
         <v>30000</v>
       </c>
       <c r="N92" s="31"/>
-      <c r="O92" s="4">
-        <v>45704</v>
-      </c>
-      <c r="P92" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q92" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R92" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S92" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="5"/>
       <c r="T92" s="5"/>
-      <c r="U92" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="U92" s="5"/>
       <c r="W92" s="5" t="s">
         <v>38</v>
       </c>
@@ -7742,7 +6578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -7753,7 +6589,7 @@
         <v>3468</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E93">
         <v>20250217</v>
@@ -7783,19 +6619,10 @@
         <v>45440000</v>
       </c>
       <c r="N93" s="31"/>
-      <c r="Q93" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R93" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S93" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="34"/>
+      <c r="S93" s="5"/>
       <c r="T93"/>
-      <c r="U93" t="s">
-        <v>216</v>
-      </c>
       <c r="W93" s="5" t="s">
         <v>38</v>
       </c>
@@ -7803,7 +6630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>60</v>
       </c>
@@ -7814,7 +6641,7 @@
         <v>2988</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E94">
         <v>20250217</v>
@@ -7844,19 +6671,10 @@
       <c r="N94" s="31">
         <v>241660000</v>
       </c>
-      <c r="Q94" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R94" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S94" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="5"/>
       <c r="T94"/>
-      <c r="U94" t="s">
-        <v>216</v>
-      </c>
       <c r="W94" s="5" t="s">
         <v>38</v>
       </c>
@@ -7864,7 +6682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>423</v>
       </c>
@@ -7875,7 +6693,7 @@
         <v>3956</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E95">
         <v>20250217</v>
@@ -7905,25 +6723,11 @@
         <v>100000</v>
       </c>
       <c r="N95" s="31"/>
-      <c r="O95" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P95" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q95" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R95" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S95" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q95" s="33"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="5"/>
       <c r="T95"/>
-      <c r="U95" s="35" t="s">
-        <v>220</v>
-      </c>
+      <c r="U95" s="35"/>
       <c r="W95" s="5" t="s">
         <v>38</v>
       </c>
@@ -7931,7 +6735,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -7942,7 +6746,7 @@
         <v>3980</v>
       </c>
       <c r="D96" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E96">
         <v>20250217</v>
@@ -7972,19 +6776,10 @@
         <v>42920000</v>
       </c>
       <c r="N96" s="31"/>
-      <c r="Q96" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R96" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S96" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="34"/>
+      <c r="S96" s="5"/>
       <c r="T96"/>
-      <c r="U96" t="s">
-        <v>216</v>
-      </c>
       <c r="W96" s="5" t="s">
         <v>38</v>
       </c>
@@ -7992,7 +6787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>30</v>
       </c>
@@ -8003,7 +6798,7 @@
         <v>3892</v>
       </c>
       <c r="D97" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E97">
         <v>20250217</v>
@@ -8033,19 +6828,10 @@
       <c r="N97" s="31">
         <v>400000</v>
       </c>
-      <c r="Q97" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R97" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S97" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="5"/>
       <c r="T97"/>
-      <c r="U97" t="s">
-        <v>64</v>
-      </c>
       <c r="W97" s="5" t="s">
         <v>38</v>
       </c>
@@ -8053,7 +6839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -8064,7 +6850,7 @@
         <v>6562</v>
       </c>
       <c r="D98" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E98">
         <v>20250217</v>
@@ -8094,25 +6880,12 @@
         <v>2950000</v>
       </c>
       <c r="N98" s="31"/>
-      <c r="O98" s="4">
-        <v>45703</v>
-      </c>
-      <c r="P98" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q98" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R98" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S98" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="11"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="5"/>
       <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="U98" s="5"/>
       <c r="W98" s="5" t="s">
         <v>38</v>
       </c>
@@ -8120,7 +6893,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>30</v>
       </c>
@@ -8131,7 +6904,7 @@
         <v>7311</v>
       </c>
       <c r="D99" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E99">
         <v>20250217</v>
@@ -8161,19 +6934,10 @@
       <c r="N99" s="31">
         <v>20000000</v>
       </c>
-      <c r="Q99" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R99" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S99" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="5"/>
       <c r="T99"/>
-      <c r="U99" t="s">
-        <v>91</v>
-      </c>
       <c r="W99" s="5" t="s">
         <v>38</v>
       </c>
@@ -8181,7 +6945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>85</v>
       </c>
@@ -8192,7 +6956,7 @@
         <v>6060</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E100">
         <v>20250217</v>
@@ -8222,19 +6986,10 @@
       <c r="N100" s="31">
         <v>140000</v>
       </c>
-      <c r="Q100" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R100" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S100" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="5"/>
       <c r="T100"/>
-      <c r="U100" t="s">
-        <v>64</v>
-      </c>
       <c r="W100" s="5" t="s">
         <v>38</v>
       </c>
@@ -8242,7 +6997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>423</v>
       </c>
@@ -8253,7 +7008,7 @@
         <v>8130</v>
       </c>
       <c r="D101" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E101">
         <v>20250217</v>
@@ -8283,19 +7038,10 @@
       <c r="N101" s="31">
         <v>50000</v>
       </c>
-      <c r="Q101" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R101" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S101" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="5"/>
       <c r="T101"/>
-      <c r="U101" t="s">
-        <v>217</v>
-      </c>
       <c r="W101" s="5" t="s">
         <v>38</v>
       </c>
@@ -8303,7 +7049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -8314,7 +7060,7 @@
         <v>2224</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E102">
         <v>20250217</v>
@@ -8344,25 +7090,11 @@
         <v>150000</v>
       </c>
       <c r="N102" s="31"/>
-      <c r="O102" s="4">
-        <v>45703</v>
-      </c>
-      <c r="P102" s="4">
-        <v>45704</v>
-      </c>
-      <c r="Q102" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R102" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="S102" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="34"/>
+      <c r="S102" s="5"/>
       <c r="T102"/>
-      <c r="U102" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="U102" s="5"/>
       <c r="W102" s="5" t="s">
         <v>38</v>
       </c>
@@ -8370,7 +7102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>70</v>
       </c>
@@ -8381,7 +7113,7 @@
         <v>1920</v>
       </c>
       <c r="D103" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E103">
         <v>20250217</v>
@@ -8411,19 +7143,10 @@
       <c r="N103" s="31">
         <v>5950000</v>
       </c>
-      <c r="Q103" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R103" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S103" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="37"/>
+      <c r="S103" s="5"/>
       <c r="T103"/>
-      <c r="U103" t="s">
-        <v>64</v>
-      </c>
       <c r="W103" s="5" t="s">
         <v>38</v>
       </c>
@@ -8431,18 +7154,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>526</v>
       </c>
       <c r="B104" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C104" s="9">
         <v>139</v>
       </c>
       <c r="D104" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E104">
         <v>20250217</v>
@@ -8472,21 +7195,9 @@
         <v>4300000</v>
       </c>
       <c r="N104" s="31"/>
-      <c r="O104" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P104" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q104" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R104" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S104" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q104" s="33"/>
+      <c r="R104" s="34"/>
+      <c r="S104" s="5"/>
       <c r="T104"/>
       <c r="W104" s="5" t="s">
         <v>38</v>
@@ -8495,7 +7206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>260</v>
       </c>
@@ -8506,7 +7217,7 @@
         <v>1408</v>
       </c>
       <c r="D105" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E105">
         <v>20250217</v>
@@ -8536,21 +7247,9 @@
         <v>400000</v>
       </c>
       <c r="N105" s="31"/>
-      <c r="O105" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P105" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q105" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R105" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S105" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="34"/>
+      <c r="S105" s="5"/>
       <c r="T105"/>
       <c r="W105" s="5" t="s">
         <v>38</v>
@@ -8559,7 +7258,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -8570,7 +7269,7 @@
         <v>1576</v>
       </c>
       <c r="D106" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E106">
         <v>20250217</v>
@@ -8600,19 +7299,10 @@
       <c r="N106" s="31">
         <v>195160000</v>
       </c>
-      <c r="Q106" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R106" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S106" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q106" s="36"/>
+      <c r="R106" s="37"/>
+      <c r="S106" s="5"/>
       <c r="T106"/>
-      <c r="U106" t="s">
-        <v>64</v>
-      </c>
       <c r="W106" s="5" t="s">
         <v>38</v>
       </c>
@@ -8620,7 +7310,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>30</v>
       </c>
@@ -8631,7 +7321,7 @@
         <v>1105</v>
       </c>
       <c r="D107" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E107">
         <v>20250217</v>
@@ -8661,15 +7351,9 @@
         <v>3000000</v>
       </c>
       <c r="N107" s="31"/>
-      <c r="Q107" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R107" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S107" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q107" s="33"/>
+      <c r="R107" s="34"/>
+      <c r="S107" s="5"/>
       <c r="T107"/>
       <c r="W107" s="5" t="s">
         <v>38</v>
@@ -8678,7 +7362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>30</v>
       </c>
@@ -8689,7 +7373,7 @@
         <v>4448</v>
       </c>
       <c r="D108" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E108">
         <v>20250217</v>
@@ -8719,25 +7403,10 @@
       <c r="N108" s="31">
         <v>60000</v>
       </c>
-      <c r="O108" s="4">
-        <v>45704</v>
-      </c>
-      <c r="P108" s="4">
-        <v>45704</v>
-      </c>
-      <c r="Q108" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R108" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="S108" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q108" s="36"/>
+      <c r="R108" s="37"/>
+      <c r="S108" s="5"/>
       <c r="T108"/>
-      <c r="U108" t="s">
-        <v>209</v>
-      </c>
       <c r="V108" s="38"/>
       <c r="W108" s="5" t="s">
         <v>38</v>
@@ -8746,7 +7415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>30</v>
       </c>
@@ -8757,7 +7426,7 @@
         <v>4478</v>
       </c>
       <c r="D109" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E109">
         <v>20250217</v>
@@ -8787,19 +7456,10 @@
       <c r="N109" s="31">
         <v>6000000</v>
       </c>
-      <c r="Q109" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R109" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S109" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q109" s="36"/>
+      <c r="R109" s="37"/>
+      <c r="S109" s="5"/>
       <c r="T109"/>
-      <c r="U109" t="s">
-        <v>66</v>
-      </c>
       <c r="W109" s="5" t="s">
         <v>38</v>
       </c>
@@ -8807,7 +7467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -8818,7 +7478,7 @@
         <v>4686</v>
       </c>
       <c r="D110" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E110">
         <v>20250217</v>
@@ -8848,19 +7508,10 @@
       <c r="N110" s="31">
         <v>870000</v>
       </c>
-      <c r="Q110" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R110" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S110" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q110" s="36"/>
+      <c r="R110" s="37"/>
+      <c r="S110" s="5"/>
       <c r="T110"/>
-      <c r="U110" t="s">
-        <v>218</v>
-      </c>
       <c r="W110" s="5" t="s">
         <v>38</v>
       </c>
@@ -8868,7 +7519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>30</v>
       </c>
@@ -8879,7 +7530,7 @@
         <v>5319</v>
       </c>
       <c r="D111" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E111">
         <v>20250217</v>
@@ -8909,25 +7560,8 @@
       <c r="N111" s="31">
         <v>70000</v>
       </c>
-      <c r="O111" s="4">
-        <v>45703</v>
-      </c>
-      <c r="P111" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>56</v>
-      </c>
-      <c r="R111" t="s">
-        <v>58</v>
-      </c>
-      <c r="S111" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="S111" s="5"/>
       <c r="T111"/>
-      <c r="U111" t="s">
-        <v>59</v>
-      </c>
       <c r="W111" s="5" t="s">
         <v>38</v>
       </c>
@@ -8935,18 +7569,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>645</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C112" s="9">
         <v>5606</v>
       </c>
       <c r="D112" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E112">
         <v>20250217</v>
@@ -8976,19 +7610,10 @@
       <c r="N112" s="31">
         <v>1190000</v>
       </c>
-      <c r="Q112" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R112" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S112" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q112" s="36"/>
+      <c r="R112" s="37"/>
+      <c r="S112" s="5"/>
       <c r="T112"/>
-      <c r="U112" t="s">
-        <v>64</v>
-      </c>
       <c r="W112" s="5" t="s">
         <v>38</v>
       </c>
@@ -8996,7 +7621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -9007,7 +7632,7 @@
         <v>5626</v>
       </c>
       <c r="D113" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E113">
         <v>20250217</v>
@@ -9037,19 +7662,10 @@
       <c r="N113" s="31">
         <v>1150000</v>
       </c>
-      <c r="Q113" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R113" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S113" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q113" s="36"/>
+      <c r="R113" s="37"/>
+      <c r="S113" s="5"/>
       <c r="T113"/>
-      <c r="U113" t="s">
-        <v>64</v>
-      </c>
       <c r="W113" s="5" t="s">
         <v>38</v>
       </c>
@@ -9057,7 +7673,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>30</v>
       </c>
@@ -9068,7 +7684,7 @@
         <v>5532</v>
       </c>
       <c r="D114" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E114">
         <v>20250217</v>
@@ -9098,19 +7714,10 @@
       <c r="N114" s="31">
         <v>380000</v>
       </c>
-      <c r="Q114" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R114" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S114" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q114" s="36"/>
+      <c r="R114" s="37"/>
+      <c r="S114" s="5"/>
       <c r="T114"/>
-      <c r="U114" t="s">
-        <v>64</v>
-      </c>
       <c r="W114" s="5" t="s">
         <v>38</v>
       </c>
@@ -9118,7 +7725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>423</v>
       </c>
@@ -9129,7 +7736,7 @@
         <v>5517</v>
       </c>
       <c r="D115" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E115">
         <v>20250217</v>
@@ -9159,25 +7766,10 @@
       <c r="N115" s="31">
         <v>180000</v>
       </c>
-      <c r="O115" s="4">
-        <v>45704</v>
-      </c>
-      <c r="P115" s="4">
-        <v>45704</v>
-      </c>
-      <c r="Q115" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R115" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="S115" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="Q115" s="36"/>
+      <c r="R115" s="37"/>
+      <c r="S115" s="5"/>
       <c r="T115"/>
-      <c r="U115" t="s">
-        <v>209</v>
-      </c>
       <c r="V115" s="38"/>
       <c r="W115" s="5" t="s">
         <v>38</v>
@@ -9186,7 +7778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>85</v>
       </c>
@@ -9197,7 +7789,7 @@
         <v>5678</v>
       </c>
       <c r="D116" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E116">
         <v>20250217</v>
@@ -9227,21 +7819,9 @@
         <v>460000</v>
       </c>
       <c r="N116" s="31"/>
-      <c r="O116" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P116" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q116" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R116" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S116" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q116" s="33"/>
+      <c r="R116" s="34"/>
+      <c r="S116" s="5"/>
       <c r="T116"/>
       <c r="W116" s="5" t="s">
         <v>38</v>
@@ -9250,18 +7830,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C117" s="9">
         <v>5676</v>
       </c>
       <c r="D117" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E117">
         <v>20250217</v>
@@ -9291,19 +7871,10 @@
       <c r="N117" s="31">
         <v>450000</v>
       </c>
-      <c r="Q117" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R117" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S117" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q117" s="36"/>
+      <c r="R117" s="37"/>
+      <c r="S117" s="5"/>
       <c r="T117"/>
-      <c r="U117" t="s">
-        <v>64</v>
-      </c>
       <c r="W117" s="5" t="s">
         <v>38</v>
       </c>
@@ -9311,7 +7882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>80</v>
       </c>
@@ -9322,7 +7893,7 @@
         <v>5680</v>
       </c>
       <c r="D118" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E118">
         <v>20250217</v>
@@ -9352,25 +7923,8 @@
       <c r="N118" s="31">
         <v>460000</v>
       </c>
-      <c r="O118" s="4">
-        <v>45704</v>
-      </c>
-      <c r="P118" s="4">
-        <v>45704</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>56</v>
-      </c>
-      <c r="R118" t="s">
-        <v>57</v>
-      </c>
-      <c r="S118" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="S118" s="5"/>
       <c r="T118"/>
-      <c r="U118" t="s">
-        <v>210</v>
-      </c>
       <c r="W118" s="5" t="s">
         <v>38</v>
       </c>
@@ -9378,7 +7932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>80</v>
       </c>
@@ -9389,7 +7943,7 @@
         <v>8115</v>
       </c>
       <c r="D119" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E119">
         <v>20250217</v>
@@ -9419,19 +7973,10 @@
         <v>18070000</v>
       </c>
       <c r="N119" s="31"/>
-      <c r="Q119" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R119" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S119" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q119" s="33"/>
+      <c r="R119" s="34"/>
+      <c r="S119" s="5"/>
       <c r="T119"/>
-      <c r="U119" t="s">
-        <v>64</v>
-      </c>
       <c r="W119" s="5" t="s">
         <v>38</v>
       </c>
@@ -9439,7 +7984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>85</v>
       </c>
@@ -9450,7 +7995,7 @@
         <v>8112</v>
       </c>
       <c r="D120" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E120">
         <v>20250217</v>
@@ -9480,21 +8025,9 @@
         <v>280000</v>
       </c>
       <c r="N120" s="31"/>
-      <c r="O120" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P120" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q120" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R120" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S120" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q120" s="33"/>
+      <c r="R120" s="34"/>
+      <c r="S120" s="5"/>
       <c r="T120"/>
       <c r="W120" s="5" t="s">
         <v>38</v>
@@ -9503,7 +8036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>30</v>
       </c>
@@ -9514,7 +8047,7 @@
         <v>2242</v>
       </c>
       <c r="D121" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E121">
         <v>20250217</v>
@@ -9544,21 +8077,9 @@
         <v>20000</v>
       </c>
       <c r="N121" s="31"/>
-      <c r="O121" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P121" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q121" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R121" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S121" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q121" s="33"/>
+      <c r="R121" s="34"/>
+      <c r="S121" s="5"/>
       <c r="T121"/>
       <c r="W121" s="5" t="s">
         <v>38</v>
@@ -9567,7 +8088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>30</v>
       </c>
@@ -9578,7 +8099,7 @@
         <v>2153</v>
       </c>
       <c r="D122" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E122">
         <v>20250217</v>
@@ -9608,19 +8129,10 @@
         <v>36300000</v>
       </c>
       <c r="N122" s="31"/>
-      <c r="Q122" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="R122" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S122" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q122" s="33"/>
+      <c r="R122" s="34"/>
+      <c r="S122" s="5"/>
       <c r="T122"/>
-      <c r="U122" t="s">
-        <v>64</v>
-      </c>
       <c r="W122" s="5" t="s">
         <v>38</v>
       </c>
@@ -9628,7 +8140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -9639,7 +8151,7 @@
         <v>2225</v>
       </c>
       <c r="D123" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E123">
         <v>20250217</v>
@@ -9669,25 +8181,12 @@
       <c r="N123" s="31">
         <v>50000</v>
       </c>
-      <c r="O123" s="4">
-        <v>45703</v>
-      </c>
-      <c r="P123" s="12">
-        <v>45705</v>
-      </c>
-      <c r="Q123" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="R123" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S123" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="11"/>
+      <c r="R123" s="8"/>
+      <c r="S123" s="5"/>
       <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
-        <v>208</v>
-      </c>
+      <c r="U123" s="5"/>
       <c r="W123" s="5" t="s">
         <v>38</v>
       </c>
@@ -9695,7 +8194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -9706,7 +8205,7 @@
         <v>2850</v>
       </c>
       <c r="D124" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E124">
         <v>20250217</v>
@@ -9736,21 +8235,9 @@
         <v>40000</v>
       </c>
       <c r="N124" s="31"/>
-      <c r="O124" s="4">
-        <v>45705</v>
-      </c>
-      <c r="P124" s="4">
-        <v>45705</v>
-      </c>
-      <c r="Q124" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="R124" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S124" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q124" s="33"/>
+      <c r="R124" s="34"/>
+      <c r="S124" s="5"/>
       <c r="T124"/>
       <c r="W124" s="5" t="s">
         <v>38</v>
@@ -9759,7 +8246,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -9770,7 +8257,7 @@
         <v>2507</v>
       </c>
       <c r="D125" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E125">
         <v>20250217</v>
@@ -9800,15 +8287,7 @@
       <c r="N125" s="31">
         <v>77940000</v>
       </c>
-      <c r="Q125" t="s">
-        <v>61</v>
-      </c>
-      <c r="R125" t="s">
-        <v>40</v>
-      </c>
-      <c r="S125" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="S125" s="5"/>
       <c r="T125"/>
       <c r="W125" s="5" t="s">
         <v>38</v>
@@ -9817,19 +8296,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1042853" spans="17:17" x14ac:dyDescent="0.35">
+    <row r="1042853" spans="17:17" x14ac:dyDescent="0.3">
       <c r="Q1042853" s="7"/>
     </row>
-    <row r="1043332" spans="18:21" x14ac:dyDescent="0.35">
+    <row r="1043332" spans="18:21" x14ac:dyDescent="0.3">
       <c r="R1043332" s="8"/>
       <c r="S1043332" s="5"/>
       <c r="T1043332" s="5"/>
       <c r="U1043332" s="5"/>
     </row>
-    <row r="1044149" spans="21:21" x14ac:dyDescent="0.35">
+    <row r="1044149" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U1044149" s="10"/>
     </row>
-    <row r="1045536" spans="16:22" x14ac:dyDescent="0.35">
+    <row r="1045536" spans="16:22" x14ac:dyDescent="0.3">
       <c r="P1045536" s="12"/>
       <c r="Q1045536" s="11"/>
       <c r="R1045536" s="8"/>
@@ -9838,7 +8317,7 @@
       <c r="U1045536" s="5"/>
       <c r="V1045536" s="5"/>
     </row>
-    <row r="1047615" spans="16:21" x14ac:dyDescent="0.35">
+    <row r="1047615" spans="16:21" x14ac:dyDescent="0.3">
       <c r="P1047615" s="12"/>
       <c r="Q1047615" s="11"/>
       <c r="R1047615" s="8"/>
@@ -9846,7 +8325,7 @@
       <c r="T1047615" s="5"/>
       <c r="U1047615" s="5"/>
     </row>
-    <row r="1048294" spans="15:20" x14ac:dyDescent="0.35">
+    <row r="1048294" spans="15:20" x14ac:dyDescent="0.3">
       <c r="O1048294" s="21"/>
       <c r="P1048294" s="21"/>
       <c r="Q1048294" s="5"/>
@@ -9855,7 +8334,7 @@
       <c r="T1048294" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z125" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z125"/>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
@@ -9863,16 +8342,16 @@
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R1043332:R1047614" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R1043332:R1047614">
       <formula1>"FISICO,CONTABLE,PENDIENTE DE GESTION,CRUZAR"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Q1045536:Q1047614" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="Q1045536:Q1047614">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1047615:Q1048576 Q2:Q125" xr:uid="{A4792D91-2496-4184-B62C-51B804DC65E1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1047615:Q1048576 Q2:Q125">
       <formula1>"SI,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1047615:R1048576 R2:R125" xr:uid="{BA6DE583-22C9-4B82-844E-B5EFA7159191}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1047615:R1048576 R2:R125">
       <formula1>"FISICO,CONTABLE,PENDIENTE DE GESTION,CRUZAR"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9882,7 +8361,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas_Validacion!$A$1:$A$14</xm:f>
           </x14:formula1>
@@ -9895,79 +8374,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
